--- a/data/labor-force.xlsx
+++ b/data/labor-force.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmainza/Desktop/projects/county-index/county-index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37BB6A72-D62B-444D-A8B3-79855B4C40F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92D378-9060-6E4E-8B31-DB11723D804E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31800" yWindow="-200" windowWidth="27640" windowHeight="16940" xr2:uid="{074586C9-E693-F843-9E9D-FF372BCE91D4}"/>
   </bookViews>
   <sheets>
     <sheet name="S2301" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="487">
   <si>
     <t>FIPS</t>
   </si>
@@ -1012,12 +1012,498 @@
   </si>
   <si>
     <t>Worth County</t>
+  </si>
+  <si>
+    <t>2020 Labor Force Participation</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Appling County, Georgia</t>
+  </si>
+  <si>
+    <t>Atkinson County, Georgia</t>
+  </si>
+  <si>
+    <t>Bacon County, Georgia</t>
+  </si>
+  <si>
+    <t>Baker County, Georgia</t>
+  </si>
+  <si>
+    <t>Baldwin County, Georgia</t>
+  </si>
+  <si>
+    <t>Banks County, Georgia</t>
+  </si>
+  <si>
+    <t>Barrow County, Georgia</t>
+  </si>
+  <si>
+    <t>Bartow County, Georgia</t>
+  </si>
+  <si>
+    <t>Ben Hill County, Georgia</t>
+  </si>
+  <si>
+    <t>Berrien County, Georgia</t>
+  </si>
+  <si>
+    <t>Bibb County, Georgia</t>
+  </si>
+  <si>
+    <t>Bleckley County, Georgia</t>
+  </si>
+  <si>
+    <t>Brantley County, Georgia</t>
+  </si>
+  <si>
+    <t>Brooks County, Georgia</t>
+  </si>
+  <si>
+    <t>Bryan County, Georgia</t>
+  </si>
+  <si>
+    <t>Bulloch County, Georgia</t>
+  </si>
+  <si>
+    <t>Burke County, Georgia</t>
+  </si>
+  <si>
+    <t>Butts County, Georgia</t>
+  </si>
+  <si>
+    <t>Calhoun County, Georgia</t>
+  </si>
+  <si>
+    <t>Camden County, Georgia</t>
+  </si>
+  <si>
+    <t>Candler County, Georgia</t>
+  </si>
+  <si>
+    <t>Carroll County, Georgia</t>
+  </si>
+  <si>
+    <t>Catoosa County, Georgia</t>
+  </si>
+  <si>
+    <t>Charlton County, Georgia</t>
+  </si>
+  <si>
+    <t>Chatham County, Georgia</t>
+  </si>
+  <si>
+    <t>Chattahoochee County, Georgia</t>
+  </si>
+  <si>
+    <t>Chattooga County, Georgia</t>
+  </si>
+  <si>
+    <t>Cherokee County, Georgia</t>
+  </si>
+  <si>
+    <t>Clarke County, Georgia</t>
+  </si>
+  <si>
+    <t>Clay County, Georgia</t>
+  </si>
+  <si>
+    <t>Clayton County, Georgia</t>
+  </si>
+  <si>
+    <t>Clinch County, Georgia</t>
+  </si>
+  <si>
+    <t>Cobb County, Georgia</t>
+  </si>
+  <si>
+    <t>Coffee County, Georgia</t>
+  </si>
+  <si>
+    <t>Colquitt County, Georgia</t>
+  </si>
+  <si>
+    <t>Columbia County, Georgia</t>
+  </si>
+  <si>
+    <t>Cook County, Georgia</t>
+  </si>
+  <si>
+    <t>Coweta County, Georgia</t>
+  </si>
+  <si>
+    <t>Crawford County, Georgia</t>
+  </si>
+  <si>
+    <t>Crisp County, Georgia</t>
+  </si>
+  <si>
+    <t>Dade County, Georgia</t>
+  </si>
+  <si>
+    <t>Dawson County, Georgia</t>
+  </si>
+  <si>
+    <t>Decatur County, Georgia</t>
+  </si>
+  <si>
+    <t>DeKalb County, Georgia</t>
+  </si>
+  <si>
+    <t>Dodge County, Georgia</t>
+  </si>
+  <si>
+    <t>Dooly County, Georgia</t>
+  </si>
+  <si>
+    <t>Dougherty County, Georgia</t>
+  </si>
+  <si>
+    <t>Douglas County, Georgia</t>
+  </si>
+  <si>
+    <t>Early County, Georgia</t>
+  </si>
+  <si>
+    <t>Echols County, Georgia</t>
+  </si>
+  <si>
+    <t>Effingham County, Georgia</t>
+  </si>
+  <si>
+    <t>Elbert County, Georgia</t>
+  </si>
+  <si>
+    <t>Emanuel County, Georgia</t>
+  </si>
+  <si>
+    <t>Evans County, Georgia</t>
+  </si>
+  <si>
+    <t>Fannin County, Georgia</t>
+  </si>
+  <si>
+    <t>Fayette County, Georgia</t>
+  </si>
+  <si>
+    <t>Floyd County, Georgia</t>
+  </si>
+  <si>
+    <t>Forsyth County, Georgia</t>
+  </si>
+  <si>
+    <t>Franklin County, Georgia</t>
+  </si>
+  <si>
+    <t>Fulton County, Georgia</t>
+  </si>
+  <si>
+    <t>Gilmer County, Georgia</t>
+  </si>
+  <si>
+    <t>Glascock County, Georgia</t>
+  </si>
+  <si>
+    <t>Glynn County, Georgia</t>
+  </si>
+  <si>
+    <t>Gordon County, Georgia</t>
+  </si>
+  <si>
+    <t>Grady County, Georgia</t>
+  </si>
+  <si>
+    <t>Greene County, Georgia</t>
+  </si>
+  <si>
+    <t>Gwinnett County, Georgia</t>
+  </si>
+  <si>
+    <t>Habersham County, Georgia</t>
+  </si>
+  <si>
+    <t>Hall County, Georgia</t>
+  </si>
+  <si>
+    <t>Hancock County, Georgia</t>
+  </si>
+  <si>
+    <t>Haralson County, Georgia</t>
+  </si>
+  <si>
+    <t>Harris County, Georgia</t>
+  </si>
+  <si>
+    <t>Hart County, Georgia</t>
+  </si>
+  <si>
+    <t>Heard County, Georgia</t>
+  </si>
+  <si>
+    <t>Henry County, Georgia</t>
+  </si>
+  <si>
+    <t>Houston County, Georgia</t>
+  </si>
+  <si>
+    <t>Irwin County, Georgia</t>
+  </si>
+  <si>
+    <t>Jackson County, Georgia</t>
+  </si>
+  <si>
+    <t>Jasper County, Georgia</t>
+  </si>
+  <si>
+    <t>Jeff Davis County, Georgia</t>
+  </si>
+  <si>
+    <t>Jefferson County, Georgia</t>
+  </si>
+  <si>
+    <t>Jenkins County, Georgia</t>
+  </si>
+  <si>
+    <t>Johnson County, Georgia</t>
+  </si>
+  <si>
+    <t>Jones County, Georgia</t>
+  </si>
+  <si>
+    <t>Lamar County, Georgia</t>
+  </si>
+  <si>
+    <t>Lanier County, Georgia</t>
+  </si>
+  <si>
+    <t>Laurens County, Georgia</t>
+  </si>
+  <si>
+    <t>Lee County, Georgia</t>
+  </si>
+  <si>
+    <t>Liberty County, Georgia</t>
+  </si>
+  <si>
+    <t>Lincoln County, Georgia</t>
+  </si>
+  <si>
+    <t>Long County, Georgia</t>
+  </si>
+  <si>
+    <t>Lowndes County, Georgia</t>
+  </si>
+  <si>
+    <t>Lumpkin County, Georgia</t>
+  </si>
+  <si>
+    <t>McDuffie County, Georgia</t>
+  </si>
+  <si>
+    <t>McIntosh County, Georgia</t>
+  </si>
+  <si>
+    <t>Macon County, Georgia</t>
+  </si>
+  <si>
+    <t>Madison County, Georgia</t>
+  </si>
+  <si>
+    <t>Marion County, Georgia</t>
+  </si>
+  <si>
+    <t>Meriwether County, Georgia</t>
+  </si>
+  <si>
+    <t>Miller County, Georgia</t>
+  </si>
+  <si>
+    <t>Mitchell County, Georgia</t>
+  </si>
+  <si>
+    <t>Monroe County, Georgia</t>
+  </si>
+  <si>
+    <t>Montgomery County, Georgia</t>
+  </si>
+  <si>
+    <t>Morgan County, Georgia</t>
+  </si>
+  <si>
+    <t>Murray County, Georgia</t>
+  </si>
+  <si>
+    <t>Muscogee County, Georgia</t>
+  </si>
+  <si>
+    <t>Newton County, Georgia</t>
+  </si>
+  <si>
+    <t>Oconee County, Georgia</t>
+  </si>
+  <si>
+    <t>Oglethorpe County, Georgia</t>
+  </si>
+  <si>
+    <t>Paulding County, Georgia</t>
+  </si>
+  <si>
+    <t>Peach County, Georgia</t>
+  </si>
+  <si>
+    <t>Pickens County, Georgia</t>
+  </si>
+  <si>
+    <t>Pierce County, Georgia</t>
+  </si>
+  <si>
+    <t>Pike County, Georgia</t>
+  </si>
+  <si>
+    <t>Polk County, Georgia</t>
+  </si>
+  <si>
+    <t>Pulaski County, Georgia</t>
+  </si>
+  <si>
+    <t>Putnam County, Georgia</t>
+  </si>
+  <si>
+    <t>Quitman County, Georgia</t>
+  </si>
+  <si>
+    <t>Rabun County, Georgia</t>
+  </si>
+  <si>
+    <t>Randolph County, Georgia</t>
+  </si>
+  <si>
+    <t>Richmond County, Georgia</t>
+  </si>
+  <si>
+    <t>Rockdale County, Georgia</t>
+  </si>
+  <si>
+    <t>Schley County, Georgia</t>
+  </si>
+  <si>
+    <t>Screven County, Georgia</t>
+  </si>
+  <si>
+    <t>Seminole County, Georgia</t>
+  </si>
+  <si>
+    <t>Spalding County, Georgia</t>
+  </si>
+  <si>
+    <t>Stephens County, Georgia</t>
+  </si>
+  <si>
+    <t>Stewart County, Georgia</t>
+  </si>
+  <si>
+    <t>Sumter County, Georgia</t>
+  </si>
+  <si>
+    <t>Talbot County, Georgia</t>
+  </si>
+  <si>
+    <t>Taliaferro County, Georgia</t>
+  </si>
+  <si>
+    <t>Tattnall County, Georgia</t>
+  </si>
+  <si>
+    <t>Taylor County, Georgia</t>
+  </si>
+  <si>
+    <t>Telfair County, Georgia</t>
+  </si>
+  <si>
+    <t>Terrell County, Georgia</t>
+  </si>
+  <si>
+    <t>Thomas County, Georgia</t>
+  </si>
+  <si>
+    <t>Tift County, Georgia</t>
+  </si>
+  <si>
+    <t>Toombs County, Georgia</t>
+  </si>
+  <si>
+    <t>Towns County, Georgia</t>
+  </si>
+  <si>
+    <t>Treutlen County, Georgia</t>
+  </si>
+  <si>
+    <t>Troup County, Georgia</t>
+  </si>
+  <si>
+    <t>Turner County, Georgia</t>
+  </si>
+  <si>
+    <t>Twiggs County, Georgia</t>
+  </si>
+  <si>
+    <t>Union County, Georgia</t>
+  </si>
+  <si>
+    <t>Upson County, Georgia</t>
+  </si>
+  <si>
+    <t>Walker County, Georgia</t>
+  </si>
+  <si>
+    <t>Walton County, Georgia</t>
+  </si>
+  <si>
+    <t>Ware County, Georgia</t>
+  </si>
+  <si>
+    <t>Warren County, Georgia</t>
+  </si>
+  <si>
+    <t>Washington County, Georgia</t>
+  </si>
+  <si>
+    <t>Wayne County, Georgia</t>
+  </si>
+  <si>
+    <t>Webster County, Georgia</t>
+  </si>
+  <si>
+    <t>Wheeler County, Georgia</t>
+  </si>
+  <si>
+    <t>White County, Georgia</t>
+  </si>
+  <si>
+    <t>Whitfield County, Georgia</t>
+  </si>
+  <si>
+    <t>Wilcox County, Georgia</t>
+  </si>
+  <si>
+    <t>Wilkes County, Georgia</t>
+  </si>
+  <si>
+    <t>Wilkinson County, Georgia</t>
+  </si>
+  <si>
+    <t>Worth County, Georgia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1047,9 +1533,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1364,1768 +1851,2170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0C447B-5960-8C4D-A902-9C963357B0C1}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2">
         <v>57.3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>53.9</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>53.1</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>52.4</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>54</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" s="2">
+        <v>50.9056399132321</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>329</v>
+      </c>
+      <c r="D3">
         <v>57.2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>59.2</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>59.1</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>58.3</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>55.8</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>56.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="2">
+        <v>51.668891855807743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D4">
         <v>54.3</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>54.7</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>53.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>52</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50.7</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="2">
+        <v>42.130166949379522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5">
         <v>52.8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>50.7</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>50.6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>49.2</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>49.5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <v>36.015325670498086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6">
         <v>48.8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>47.5</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>49.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>51.6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>52.2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="2">
+        <v>40.635321761876256</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7">
         <v>61.3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>58.8</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>57.2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>55.7</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>54.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="2">
+        <v>53.057515501389787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D8">
         <v>66.5</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>65.8</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>64.099999999999994</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>64.5</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>64</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>64.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <v>50.936182603081356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9">
         <v>63</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>62.5</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>62</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>62.3</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>62.8</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>61.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="2">
+        <v>48.128556314871474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D10">
         <v>49.5</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>49.7</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>45.6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>48.3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>49.7</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>49.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J10" s="2">
+        <v>31.468326190336406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11">
         <v>52.9</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>50.7</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>51.9</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>52.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>52.4</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" s="2">
+        <v>38.982873851294904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12">
         <v>56.8</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>57.3</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>57</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>56.4</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>56.9</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>57.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J12" s="2">
+        <v>44.954960835509141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13">
         <v>43.3</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>45.1</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>43.6</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>44</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>44.2</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J13" s="2">
+        <v>34.957445147185133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>340</v>
+      </c>
+      <c r="D14">
         <v>52.9</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>53.2</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>50.8</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>48.5</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>49.3</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J14" s="2">
+        <v>34.53828108338665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15">
         <v>56.9</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>54.8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>56.1</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>53.7</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>51.1</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J15" s="2">
+        <v>45.169980756895441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16">
         <v>68.3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>67.099999999999994</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>68.2</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>67.599999999999994</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>67.8</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="2">
+        <v>48.994954536869656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D17">
         <v>57.4</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>57.9</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>58.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>59.7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>59.4</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J17" s="2">
+        <v>49.185496584340513</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D18">
         <v>53.7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>54</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>53.4</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>53.2</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>54.9</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>56.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="2">
+        <v>39.658081705150977</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>345</v>
+      </c>
+      <c r="D19">
         <v>53.1</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>51.1</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>49.8</v>
-      </c>
-      <c r="F19">
-        <v>48.9</v>
       </c>
       <c r="G19">
         <v>48.9</v>
       </c>
       <c r="H19">
+        <v>48.9</v>
+      </c>
+      <c r="I19">
         <v>51</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="2">
+        <v>44.811124948111249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20">
         <v>46.3</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>40.200000000000003</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>36.299999999999997</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>34.700000000000003</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>35.1</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>35.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" s="2">
+        <v>36.732128829536528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21">
         <v>66.2</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>65.099999999999994</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>65.3</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>64.8</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>65.099999999999994</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" s="2">
+        <v>38.432492344686366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>53.7</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>54.6</v>
-      </c>
-      <c r="F22">
-        <v>54.1</v>
       </c>
       <c r="G22">
         <v>54.1</v>
       </c>
       <c r="H22">
+        <v>54.1</v>
+      </c>
+      <c r="I22">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" s="2">
+        <v>52.00702922678505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23">
         <v>62</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>61.2</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>60.9</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>60.5</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>60.6</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>61.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="2">
+        <v>47.065700656238533</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>350</v>
+      </c>
+      <c r="D24">
         <v>64.2</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>63.6</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>64.099999999999994</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>63.6</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>62.5</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>61.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="2">
+        <v>49.962518740629683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>351</v>
+      </c>
+      <c r="D25">
         <v>48</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>50.2</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>49.8</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>46.4</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>44.9</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="2">
+        <v>36.411042944785279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>352</v>
+      </c>
+      <c r="D26">
         <v>62.8</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>63.4</v>
-      </c>
-      <c r="E26">
-        <v>64.7</v>
       </c>
       <c r="F26">
         <v>64.7</v>
       </c>
       <c r="G26">
+        <v>64.7</v>
+      </c>
+      <c r="H26">
         <v>65</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26" s="2">
+        <v>48.923381953302645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>59</v>
       </c>
-      <c r="C27">
-        <v>78.3</v>
+      <c r="C27" t="s">
+        <v>353</v>
       </c>
       <c r="D27">
         <v>78.3</v>
       </c>
       <c r="E27">
+        <v>78.3</v>
+      </c>
+      <c r="F27">
         <v>78.900000000000006</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>80.900000000000006</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>80.2</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>80.099999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="2">
+        <v>18.399621212121211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>60</v>
       </c>
       <c r="B28" t="s">
         <v>61</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28">
         <v>47.8</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>49.1</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>49.7</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>48.7</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>49</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>48.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J28" s="2">
+        <v>39.484926648395934</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>62</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>355</v>
+      </c>
+      <c r="D29">
         <v>68.5</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>68.099999999999994</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>67.900000000000006</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>67.599999999999994</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>68.099999999999994</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J29" s="2">
+        <v>54.389834959497406</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>65</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D30">
         <v>57.7</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>58.5</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>59.8</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>60.2</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>59.9</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J30" s="2">
+        <v>46.559567588130861</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>357</v>
+      </c>
+      <c r="D31">
         <v>45.4</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>44</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>42.3</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>45.6</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>43</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>42.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J31" s="2">
+        <v>31.413080311758723</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>68</v>
       </c>
       <c r="B32" t="s">
         <v>69</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="s">
+        <v>358</v>
+      </c>
+      <c r="D32">
         <v>67.400000000000006</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>66.8</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>66.3</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>67</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>66.400000000000006</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J32" s="2">
+        <v>50.284970621221845</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>70</v>
       </c>
       <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="s">
+        <v>359</v>
+      </c>
+      <c r="D33">
         <v>49.8</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>51.1</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>49.9</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>46.2</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>47.2</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>46.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J33" s="2">
+        <v>36.613819922225545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>72</v>
       </c>
       <c r="B34" t="s">
         <v>73</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D34">
         <v>71.599999999999994</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>71.3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>70.900000000000006</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>70.3</v>
-      </c>
-      <c r="G34">
-        <v>70.2</v>
       </c>
       <c r="H34">
         <v>70.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>70.2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>56.518480654084435</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>74</v>
       </c>
       <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>361</v>
+      </c>
+      <c r="D35">
         <v>52.2</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>50.1</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>51.1</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>51.2</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>51.9</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="2">
+        <v>44.066851072731922</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>77</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36">
         <v>58.1</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>57.6</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>57</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>58.1</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>57.9</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="2">
+        <v>46.500021984786528</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>79</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>363</v>
+      </c>
+      <c r="D37">
         <v>64.7</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>65.099999999999994</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>63.9</v>
-      </c>
-      <c r="F37">
-        <v>63.7</v>
       </c>
       <c r="G37">
         <v>63.7</v>
       </c>
       <c r="H37">
+        <v>63.7</v>
+      </c>
+      <c r="I37">
         <v>64.599999999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J37" s="2">
+        <v>47.989781360936931</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>80</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38">
         <v>60.4</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>58.1</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>56.8</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>55.1</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>56.2</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>56.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="2">
+        <v>47.889619840484372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D39">
         <v>65.099999999999994</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>65.400000000000006</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>66.099999999999994</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>66.3</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>66</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>66.099999999999994</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J39" s="2">
+        <v>52.159011587323747</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>84</v>
       </c>
       <c r="B40" t="s">
         <v>85</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
+      <c r="D40">
         <v>56.9</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>54</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>52.8</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>52.5</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>51.3</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>51.4</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J40" s="2">
+        <v>45.054766734279916</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
       <c r="B41" t="s">
         <v>87</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="s">
+        <v>367</v>
+      </c>
+      <c r="D41">
         <v>58.3</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>56.4</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>56.3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>55.5</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>56.4</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>57.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J41" s="2">
+        <v>43.226346145379296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>88</v>
       </c>
       <c r="B42" t="s">
         <v>89</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42">
         <v>61.2</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>60.6</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>60.9</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>60.2</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>57.2</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J42" s="2">
+        <v>49.817867506328334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>90</v>
       </c>
       <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D43">
         <v>59.7</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>58.4</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>60.1</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>59.8</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>60.5</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J43" s="2">
+        <v>49.588359960873817</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
       <c r="B44" t="s">
         <v>93</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44">
         <v>51.9</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>49.8</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>50.1</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>50.4</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>49</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J44" s="2">
+        <v>42.436848811933139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>94</v>
       </c>
       <c r="B45" t="s">
         <v>95</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45">
         <v>69.3</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>69.099999999999994</v>
-      </c>
-      <c r="E45">
-        <v>69</v>
       </c>
       <c r="F45">
         <v>69</v>
       </c>
       <c r="G45">
-        <v>69.2</v>
+        <v>69</v>
       </c>
       <c r="H45">
         <v>69.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>69.2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>54.105772810923995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>97</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>372</v>
+      </c>
+      <c r="D46">
         <v>50.7</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>50.8</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>51.2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>49</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>47</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J46" s="2">
+        <v>32.589178549138218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>99</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47">
         <v>43.8</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>47.4</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>48.6</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>46.5</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>49.1</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>49.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J47" s="2">
+        <v>37.267035527082122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>100</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48">
         <v>57.4</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>57.7</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>58.3</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>57.7</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>57.8</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J48" s="2">
+        <v>42.736586290313589</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>103</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>375</v>
+      </c>
+      <c r="D49">
         <v>66.599999999999994</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>66.7</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>67.2</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>67.099999999999994</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>66.7</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>67.3</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J49" s="2">
+        <v>51.585307990733767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>104</v>
       </c>
       <c r="B50" t="s">
         <v>105</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>376</v>
+      </c>
+      <c r="D50">
         <v>50.3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>50.1</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>49.7</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>49.3</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>49.9</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J50" s="2">
+        <v>43.182699767261447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>106</v>
       </c>
       <c r="B51" t="s">
         <v>107</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51">
         <v>62.4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>59.7</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>60.9</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>58.4</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>54.3</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J51" s="2">
+        <v>48.480281336347652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>108</v>
       </c>
       <c r="B52" t="s">
         <v>109</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>378</v>
+      </c>
+      <c r="D52">
         <v>65.5</v>
-      </c>
-      <c r="D52">
-        <v>65.8</v>
       </c>
       <c r="E52">
         <v>65.8</v>
       </c>
       <c r="F52">
+        <v>65.8</v>
+      </c>
+      <c r="G52">
         <v>66</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>66.3</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J52" s="2">
+        <v>50.897035236536205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>110</v>
       </c>
       <c r="B53" t="s">
         <v>111</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>379</v>
+      </c>
+      <c r="D53">
         <v>52.7</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>51.6</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>51.2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>50.9</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>53.1</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J53" s="2">
+        <v>40.989251800062611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>112</v>
       </c>
       <c r="B54" t="s">
         <v>113</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54">
         <v>54.6</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>54.1</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>52.3</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>53.2</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>52</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J54" s="2">
+        <v>36.422136422136418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>114</v>
       </c>
       <c r="B55" t="s">
         <v>115</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>381</v>
+      </c>
+      <c r="D55">
         <v>54</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>54.5</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>57.6</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>56.8</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>57.3</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J55" s="2">
+        <v>45.924955553476188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>116</v>
       </c>
       <c r="B56" t="s">
         <v>117</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56">
         <v>49</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>49.2</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>49.1</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>48.9</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>48.3</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J56" s="2">
+        <v>49.194723370742274</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>118</v>
       </c>
       <c r="B57" t="s">
         <v>119</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>383</v>
+      </c>
+      <c r="D57">
         <v>63.4</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>62.9</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>62.6</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>62.4</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>62.2</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J57" s="2">
+        <v>51.343241053222087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>120</v>
       </c>
       <c r="B58" t="s">
         <v>121</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>384</v>
+      </c>
+      <c r="D58">
         <v>58.3</v>
-      </c>
-      <c r="D58">
-        <v>58.7</v>
       </c>
       <c r="E58">
         <v>58.7</v>
       </c>
       <c r="F58">
+        <v>58.7</v>
+      </c>
+      <c r="G58">
         <v>58.9</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>57.5</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>57.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J58" s="2">
+        <v>46.329940740892894</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>122</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>385</v>
+      </c>
+      <c r="D59">
         <v>68.2</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>68</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>68.3</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>68.599999999999994</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>68.8</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>69.099999999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J59" s="2">
+        <v>52.883533362815967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>124</v>
       </c>
       <c r="B60" t="s">
         <v>125</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60">
         <v>51.1</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>49.2</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>48.7</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>49.4</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>49.8</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J60" s="2">
+        <v>43.731880874989024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>126</v>
       </c>
       <c r="B61" t="s">
         <v>127</v>
       </c>
-      <c r="C61">
-        <v>67.3</v>
+      <c r="C61" t="s">
+        <v>387</v>
       </c>
       <c r="D61">
         <v>67.3</v>
       </c>
       <c r="E61">
+        <v>67.3</v>
+      </c>
+      <c r="F61">
         <v>67.2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>67.5</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>67.7</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J61" s="2">
+        <v>54.545068519590814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>128</v>
       </c>
       <c r="B62" t="s">
         <v>129</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>388</v>
+      </c>
+      <c r="D62">
         <v>51.7</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>52.1</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>54</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>53.7</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>54.6</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J62" s="2">
+        <v>37.209837574801078</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>130</v>
       </c>
       <c r="B63" t="s">
         <v>131</v>
       </c>
-      <c r="C63">
-        <v>60.5</v>
+      <c r="C63" t="s">
+        <v>389</v>
       </c>
       <c r="D63">
         <v>60.5</v>
       </c>
       <c r="E63">
+        <v>60.5</v>
+      </c>
+      <c r="F63">
         <v>58.3</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>56.1</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>58.6</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>55.3</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J63" s="2">
+        <v>40.520694259012011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>132</v>
       </c>
       <c r="B64" t="s">
         <v>133</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64">
         <v>63</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>62.1</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>61.1</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>60.3</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>60.9</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>60.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J64" s="2">
+        <v>41.985320232035036</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>135</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="s">
+        <v>391</v>
+      </c>
+      <c r="D65">
         <v>60.2</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>59.4</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>59.6</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>60.6</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>60.4</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>60.3</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J65" s="2">
+        <v>51.117093807908809</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>136</v>
       </c>
       <c r="B66" t="s">
         <v>137</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66">
         <v>51.1</v>
-      </c>
-      <c r="D66">
-        <v>53.3</v>
       </c>
       <c r="E66">
         <v>53.3</v>
       </c>
       <c r="F66">
+        <v>53.3</v>
+      </c>
+      <c r="G66">
         <v>57.6</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>57.1</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>57.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J66" s="2">
+        <v>40.933623328500076</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>138</v>
       </c>
       <c r="B67" t="s">
         <v>139</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67">
         <v>47.9</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>48</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>48.9</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>47.6</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>47.5</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>47.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J67" s="2">
+        <v>40.987953196149633</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>140</v>
       </c>
       <c r="B68" t="s">
         <v>141</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>394</v>
+      </c>
+      <c r="D68">
         <v>70.3</v>
-      </c>
-      <c r="D68">
-        <v>69.5</v>
       </c>
       <c r="E68">
         <v>69.5</v>
@@ -3134,859 +4023,1057 @@
         <v>69.5</v>
       </c>
       <c r="G68">
+        <v>69.5</v>
+      </c>
+      <c r="H68">
         <v>69.2</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J68" s="2">
+        <v>53.533483562575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>142</v>
       </c>
       <c r="B69" t="s">
         <v>143</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="s">
+        <v>395</v>
+      </c>
+      <c r="D69">
         <v>53.4</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>53.2</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>51.6</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>52.4</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>53.1</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J69" s="2">
+        <v>42.040514498274547</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>144</v>
       </c>
       <c r="B70" t="s">
         <v>145</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="s">
+        <v>396</v>
+      </c>
+      <c r="D70">
         <v>64.2</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>63.6</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>62.9</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>63.8</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>63.2</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>63.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J70" s="2">
+        <v>50.58968021865735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>146</v>
       </c>
       <c r="B71" t="s">
         <v>147</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="s">
+        <v>397</v>
+      </c>
+      <c r="D71">
         <v>36.200000000000003</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>33.5</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>33.200000000000003</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>29.6</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>27.9</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>30</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J71" s="2">
+        <v>30.123311802701114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>148</v>
       </c>
       <c r="B72" t="s">
         <v>149</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="s">
+        <v>398</v>
+      </c>
+      <c r="D72">
         <v>57</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>56.7</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>56.4</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>56.3</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>56.7</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>58.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J72" s="2">
+        <v>42.765251308721389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>150</v>
       </c>
       <c r="B73" t="s">
         <v>151</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="s">
+        <v>399</v>
+      </c>
+      <c r="D73">
         <v>63.5</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>62.2</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>62.3</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>62.4</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>61.2</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J73" s="2">
+        <v>46.738014953819089</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>152</v>
       </c>
       <c r="B74" t="s">
         <v>153</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74">
         <v>52</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>49.9</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>50.5</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>50.6</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>50.2</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J74" s="2">
+        <v>42.501843014006909</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>154</v>
       </c>
       <c r="B75" t="s">
         <v>155</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75">
         <v>56.9</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>56.5</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>56.9</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>57.6</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>57.7</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>58</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J75" s="2">
+        <v>44.708588957055213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>156</v>
       </c>
       <c r="B76" t="s">
         <v>157</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76">
         <v>66.7</v>
-      </c>
-      <c r="D76">
-        <v>64.599999999999994</v>
       </c>
       <c r="E76">
         <v>64.599999999999994</v>
       </c>
       <c r="F76">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="G76">
         <v>65.3</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>65.7</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>66.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J76" s="2">
+        <v>51.77496938177817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>158</v>
       </c>
       <c r="B77" t="s">
         <v>159</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="s">
+        <v>403</v>
+      </c>
+      <c r="D77">
         <v>64.3</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>64.599999999999994</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>63.8</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>63.9</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>65.2</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J77" s="2">
+        <v>44.749099389604382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>160</v>
       </c>
       <c r="B78" t="s">
         <v>161</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="s">
+        <v>404</v>
+      </c>
+      <c r="D78">
         <v>47.6</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>45.4</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>45.7</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>47.6</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>48</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J78" s="2">
+        <v>36.652360515021456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>162</v>
       </c>
       <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D79">
         <v>61</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>61.4</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>60.4</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>61.1</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>61.7</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>62</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J79" s="2">
+        <v>57.401487810267362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>164</v>
       </c>
       <c r="B80" t="s">
         <v>165</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="s">
+        <v>406</v>
+      </c>
+      <c r="D80">
         <v>61.1</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>59.1</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>58.2</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>55.2</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>52.9</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J80" s="2">
+        <v>49.583213567116985</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>166</v>
       </c>
       <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="s">
+        <v>407</v>
+      </c>
+      <c r="D81">
         <v>57.5</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>54.2</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>52.4</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>51.4</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>51.9</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J81" s="2">
+        <v>38.720404362862467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>168</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="s">
+        <v>408</v>
+      </c>
+      <c r="D82">
         <v>49.7</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>48.1</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>49</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>50.4</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>51.2</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J82" s="2">
+        <v>42.220514790626204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>170</v>
       </c>
       <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83">
         <v>52</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>49</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>46.6</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>50.1</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>49.3</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>49.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J83" s="2">
+        <v>35.516888433981578</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>172</v>
       </c>
       <c r="B84" t="s">
         <v>173</v>
       </c>
-      <c r="C84">
-        <v>53.1</v>
+      <c r="C84" t="s">
+        <v>410</v>
       </c>
       <c r="D84">
         <v>53.1</v>
       </c>
       <c r="E84">
+        <v>53.1</v>
+      </c>
+      <c r="F84">
         <v>53.8</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>57.8</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>57.6</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J84" s="2">
+        <v>41.203178206583431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>174</v>
       </c>
       <c r="B85" t="s">
         <v>175</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="s">
+        <v>411</v>
+      </c>
+      <c r="D85">
         <v>59.6</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>60</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>59.8</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>59.6</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>58</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J85" s="2">
+        <v>47.44042828650408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>176</v>
       </c>
       <c r="B86" t="s">
         <v>177</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="s">
+        <v>412</v>
+      </c>
+      <c r="D86">
         <v>57.2</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>55.3</v>
-      </c>
-      <c r="E86">
-        <v>52.6</v>
       </c>
       <c r="F86">
         <v>52.6</v>
       </c>
       <c r="G86">
+        <v>52.6</v>
+      </c>
+      <c r="H86">
         <v>52.8</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>48.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J86" s="2">
+        <v>44.044558697514994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>178</v>
       </c>
       <c r="B87" t="s">
         <v>179</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="s">
+        <v>413</v>
+      </c>
+      <c r="D87">
         <v>54.2</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>54.6</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>55.2</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>53.3</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>53.4</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J87" s="2">
+        <v>37.138728323699425</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>180</v>
       </c>
       <c r="B88" t="s">
         <v>181</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="s">
+        <v>414</v>
+      </c>
+      <c r="D88">
         <v>49.3</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>48.8</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>48.4</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>49.2</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>49.3</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J88" s="2">
+        <v>40.118130998839789</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>182</v>
       </c>
       <c r="B89" t="s">
         <v>183</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="s">
+        <v>415</v>
+      </c>
+      <c r="D89">
         <v>65.2</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>64.2</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>65.099999999999994</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>65.2</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>64</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J89" s="2">
+        <v>48.430614873567897</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>184</v>
       </c>
       <c r="B90" t="s">
         <v>185</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="s">
+        <v>416</v>
+      </c>
+      <c r="D90">
         <v>68.400000000000006</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>68.5</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>68.099999999999994</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>67.3</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>67.7</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J90" s="2">
+        <v>43.549202105983795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>186</v>
       </c>
       <c r="B91" t="s">
         <v>187</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="s">
+        <v>417</v>
+      </c>
+      <c r="D91">
         <v>56.4</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>54.2</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>53.9</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>53.1</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>53</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>52.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J91" s="2">
+        <v>43.673625254582483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>188</v>
       </c>
       <c r="B92" t="s">
         <v>189</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="s">
+        <v>418</v>
+      </c>
+      <c r="D92">
         <v>63.2</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>61.9</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>59.9</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>60.4</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>59.5</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J92" s="2">
+        <v>43.59619088380056</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>190</v>
       </c>
       <c r="B93" t="s">
         <v>191</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="s">
+        <v>419</v>
+      </c>
+      <c r="D93">
         <v>62.7</v>
       </c>
-      <c r="D93">
+      <c r="E93">
         <v>62.3</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>61.5</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>60.2</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>59.2</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J93" s="2">
+        <v>46.533580666412398</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>192</v>
       </c>
       <c r="B94" t="s">
         <v>193</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="s">
+        <v>420</v>
+      </c>
+      <c r="D94">
         <v>61.7</v>
       </c>
-      <c r="D94">
+      <c r="E94">
         <v>60.7</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>59.7</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>58.7</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>61.4</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>60.9</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J94" s="2">
+        <v>50.499969137707545</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>194</v>
       </c>
       <c r="B95" t="s">
         <v>195</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="s">
+        <v>421</v>
+      </c>
+      <c r="D95">
         <v>54.6</v>
       </c>
-      <c r="D95">
+      <c r="E95">
         <v>55.2</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>55.4</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>54.9</v>
       </c>
-      <c r="G95">
+      <c r="H95">
         <v>56.6</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>55.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J95" s="2">
+        <v>40.14448846422745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>196</v>
       </c>
       <c r="B96" t="s">
         <v>197</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="s">
+        <v>422</v>
+      </c>
+      <c r="D96">
         <v>53.1</v>
       </c>
-      <c r="D96">
+      <c r="E96">
         <v>51.1</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>52.7</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>53.3</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>54.1</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>54</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J96" s="2">
+        <v>39.212642867221675</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>198</v>
       </c>
       <c r="B97" t="s">
         <v>199</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="s">
+        <v>423</v>
+      </c>
+      <c r="D97">
         <v>46.8</v>
       </c>
-      <c r="D97">
+      <c r="E97">
         <v>47.2</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>46.6</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>47.9</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>45</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J97" s="2">
+        <v>34.37053739195791</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>200</v>
       </c>
       <c r="B98" t="s">
         <v>201</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="s">
+        <v>424</v>
+      </c>
+      <c r="D98">
         <v>57.2</v>
       </c>
-      <c r="D98">
+      <c r="E98">
         <v>55.7</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>55.8</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>57.7</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>59.9</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>59.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J98" s="2">
+        <v>44.821685262509412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>202</v>
       </c>
       <c r="B99" t="s">
         <v>203</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="s">
+        <v>425</v>
+      </c>
+      <c r="D99">
         <v>55.2</v>
       </c>
-      <c r="D99">
+      <c r="E99">
         <v>53.8</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>51.5</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>55.2</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>54.2</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>50.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J99" s="2">
+        <v>37.440702087286525</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>204</v>
       </c>
       <c r="B100" t="s">
         <v>205</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="s">
+        <v>426</v>
+      </c>
+      <c r="D100">
         <v>52.8</v>
       </c>
-      <c r="D100">
+      <c r="E100">
         <v>51.7</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>51.9</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>52.2</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>50.7</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J100" s="2">
+        <v>42.504501089737516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>206</v>
       </c>
       <c r="B101" t="s">
         <v>207</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="s">
+        <v>427</v>
+      </c>
+      <c r="D101">
         <v>55.3</v>
       </c>
-      <c r="D101">
+      <c r="E101">
         <v>54.1</v>
-      </c>
-      <c r="E101">
-        <v>53.5</v>
       </c>
       <c r="F101">
         <v>53.5</v>
@@ -3995,1541 +5082,1901 @@
         <v>53.5</v>
       </c>
       <c r="H101">
+        <v>53.5</v>
+      </c>
+      <c r="I101">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J101" s="2">
+        <v>45.757732849490232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>208</v>
       </c>
       <c r="B102" t="s">
         <v>209</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="s">
+        <v>428</v>
+      </c>
+      <c r="D102">
         <v>48.6</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>50.6</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>51.6</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>52.5</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>53.7</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J102" s="2">
+        <v>37.326919618773601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>210</v>
       </c>
       <c r="B103" t="s">
         <v>211</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="s">
+        <v>429</v>
+      </c>
+      <c r="D103">
         <v>56.2</v>
       </c>
-      <c r="D103">
+      <c r="E103">
         <v>55.7</v>
-      </c>
-      <c r="E103">
-        <v>55.3</v>
       </c>
       <c r="F103">
         <v>55.3</v>
       </c>
       <c r="G103">
+        <v>55.3</v>
+      </c>
+      <c r="H103">
         <v>56.6</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>54.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J103" s="2">
+        <v>47.473409149460821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>212</v>
       </c>
       <c r="B104" t="s">
         <v>213</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104">
         <v>48.9</v>
       </c>
-      <c r="D104">
+      <c r="E104">
         <v>50.3</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>51.8</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>51.9</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>51.5</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J104" s="2">
+        <v>41.819386177964226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>214</v>
       </c>
       <c r="B105" t="s">
         <v>215</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="s">
+        <v>431</v>
+      </c>
+      <c r="D105">
         <v>59.6</v>
       </c>
-      <c r="D105">
+      <c r="E105">
         <v>58</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>59.1</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>59.3</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>59.4</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J105" s="2">
+        <v>49.40833198249311</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>216</v>
       </c>
       <c r="B106" t="s">
         <v>217</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="s">
+        <v>432</v>
+      </c>
+      <c r="D106">
         <v>58.2</v>
       </c>
-      <c r="D106">
+      <c r="E106">
         <v>59.5</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>59.4</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>59.1</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>59.8</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>60.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J106" s="2">
+        <v>37.528949753297752</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>218</v>
       </c>
       <c r="B107" t="s">
         <v>219</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D107">
         <v>62.9</v>
-      </c>
-      <c r="D107">
-        <v>62.6</v>
       </c>
       <c r="E107">
         <v>62.6</v>
       </c>
       <c r="F107">
-        <v>61.7</v>
+        <v>62.6</v>
       </c>
       <c r="G107">
         <v>61.7</v>
       </c>
       <c r="H107">
+        <v>61.7</v>
+      </c>
+      <c r="I107">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J107" s="2">
+        <v>38.690807657135267</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>220</v>
       </c>
       <c r="B108" t="s">
         <v>221</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="s">
+        <v>434</v>
+      </c>
+      <c r="D108">
         <v>63.8</v>
       </c>
-      <c r="D108">
+      <c r="E108">
         <v>63.6</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>63.3</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>63.4</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>62.6</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>63.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J108" s="2">
+        <v>48.601485950092062</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>222</v>
       </c>
       <c r="B109" t="s">
         <v>223</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="s">
+        <v>435</v>
+      </c>
+      <c r="D109">
         <v>65.3</v>
       </c>
-      <c r="D109">
+      <c r="E109">
         <v>64.7</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>65.7</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>64.2</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>65.599999999999994</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>65.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J109" s="2">
+        <v>50.036714570439521</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>224</v>
       </c>
       <c r="B110" t="s">
         <v>225</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="s">
+        <v>436</v>
+      </c>
+      <c r="D110">
         <v>57.2</v>
       </c>
-      <c r="D110">
+      <c r="E110">
         <v>57.1</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>56.8</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>57.7</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>58.6</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>57.7</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J110" s="2">
+        <v>45.542830352956933</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>226</v>
       </c>
       <c r="B111" t="s">
         <v>227</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="s">
+        <v>437</v>
+      </c>
+      <c r="D111">
         <v>70</v>
       </c>
-      <c r="D111">
+      <c r="E111">
         <v>69.5</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>67.900000000000006</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>68</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>67.400000000000006</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>66.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J111" s="2">
+        <v>53.585484123259818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>228</v>
       </c>
       <c r="B112" t="s">
         <v>229</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="s">
+        <v>438</v>
+      </c>
+      <c r="D112">
         <v>60.3</v>
       </c>
-      <c r="D112">
+      <c r="E112">
         <v>59.9</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>57.8</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>56.9</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>53.6</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>53.8</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J112" s="2">
+        <v>42.715048811935901</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>230</v>
       </c>
       <c r="B113" t="s">
         <v>231</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="s">
+        <v>439</v>
+      </c>
+      <c r="D113">
         <v>57.3</v>
       </c>
-      <c r="D113">
+      <c r="E113">
         <v>57.2</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>56.2</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>56.6</v>
-      </c>
-      <c r="G113">
-        <v>58</v>
       </c>
       <c r="H113">
         <v>58</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113">
+        <v>58</v>
+      </c>
+      <c r="J113" s="2">
+        <v>48.287507566827031</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>232</v>
       </c>
       <c r="B114" t="s">
         <v>233</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114">
         <v>54.8</v>
       </c>
-      <c r="D114">
+      <c r="E114">
         <v>54</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>54.5</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>54.2</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>54.9</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>53.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J114" s="2">
+        <v>44.031168831168834</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>234</v>
       </c>
       <c r="B115" t="s">
         <v>235</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="s">
+        <v>441</v>
+      </c>
+      <c r="D115">
         <v>61.2</v>
       </c>
-      <c r="D115">
+      <c r="E115">
         <v>58.5</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>58.9</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>57.5</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>57.6</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>58</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J115" s="2">
+        <v>48.082064713264586</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>236</v>
       </c>
       <c r="B116" t="s">
         <v>237</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="s">
+        <v>442</v>
+      </c>
+      <c r="D116">
         <v>58.2</v>
       </c>
-      <c r="D116">
+      <c r="E116">
         <v>57.2</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>57.7</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>59.1</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>59.5</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>59.1</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J116" s="2">
+        <v>43.908084375298273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>238</v>
       </c>
       <c r="B117" t="s">
         <v>239</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D117">
         <v>47.1</v>
       </c>
-      <c r="D117">
+      <c r="E117">
         <v>44.3</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>41.4</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>40.9</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>40</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>40.700000000000003</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J117" s="2">
+        <v>34.851997146932952</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>240</v>
       </c>
       <c r="B118" t="s">
         <v>241</v>
       </c>
-      <c r="C118">
+      <c r="C118" t="s">
+        <v>444</v>
+      </c>
+      <c r="D118">
         <v>56.5</v>
       </c>
-      <c r="D118">
+      <c r="E118">
         <v>57.3</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>57.5</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>55.7</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>55</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J118" s="2">
+        <v>37.490203310128621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>242</v>
       </c>
       <c r="B119" t="s">
         <v>243</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="s">
+        <v>445</v>
+      </c>
+      <c r="D119">
         <v>43.6</v>
       </c>
-      <c r="D119">
+      <c r="E119">
         <v>43.8</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>45.4</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>46</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>47.5</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J119" s="2">
+        <v>36.391437308868504</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>244</v>
       </c>
       <c r="B120" t="s">
         <v>245</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="s">
+        <v>446</v>
+      </c>
+      <c r="D120">
         <v>50.7</v>
       </c>
-      <c r="D120">
+      <c r="E120">
         <v>48.9</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>48.1</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>47.8</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>45.7</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>45.2</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J120" s="2">
+        <v>41.423851006308197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>246</v>
       </c>
       <c r="B121" t="s">
         <v>247</v>
       </c>
-      <c r="C121">
+      <c r="C121" t="s">
+        <v>447</v>
+      </c>
+      <c r="D121">
         <v>47.4</v>
       </c>
-      <c r="D121">
+      <c r="E121">
         <v>49</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>51.2</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>51.7</v>
       </c>
-      <c r="G121">
+      <c r="H121">
         <v>49.1</v>
       </c>
-      <c r="H121">
+      <c r="I121">
         <v>49.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J121" s="2">
+        <v>37.573497777140396</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>248</v>
       </c>
       <c r="B122" t="s">
         <v>249</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="s">
+        <v>448</v>
+      </c>
+      <c r="D122">
         <v>59.7</v>
-      </c>
-      <c r="D122">
-        <v>58.7</v>
       </c>
       <c r="E122">
         <v>58.7</v>
       </c>
       <c r="F122">
+        <v>58.7</v>
+      </c>
+      <c r="G122">
         <v>59.4</v>
-      </c>
-      <c r="G122">
-        <v>60</v>
       </c>
       <c r="H122">
         <v>60</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I122">
+        <v>60</v>
+      </c>
+      <c r="J122" s="2">
+        <v>41.470483324415909</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>250</v>
       </c>
       <c r="B123" t="s">
         <v>251</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123">
         <v>64.7</v>
       </c>
-      <c r="D123">
+      <c r="E123">
         <v>63</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>62.1</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>61.8</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>61.4</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>62.3</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J123" s="2">
+        <v>50.342744407414429</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>252</v>
       </c>
       <c r="B124" t="s">
         <v>253</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="s">
+        <v>450</v>
+      </c>
+      <c r="D124">
         <v>56.7</v>
       </c>
-      <c r="D124">
+      <c r="E124">
         <v>58.3</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>59.4</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>58.5</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>59.5</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>59.4</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J124" s="2">
+        <v>43.325033518483046</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>254</v>
       </c>
       <c r="B125" t="s">
         <v>255</v>
       </c>
-      <c r="C125">
+      <c r="C125" t="s">
+        <v>451</v>
+      </c>
+      <c r="D125">
         <v>52.5</v>
-      </c>
-      <c r="D125">
-        <v>53.7</v>
       </c>
       <c r="E125">
         <v>53.7</v>
       </c>
       <c r="F125">
+        <v>53.7</v>
+      </c>
+      <c r="G125">
         <v>52.9</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>52.6</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>53</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J125" s="2">
+        <v>36.457216384301951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>256</v>
       </c>
       <c r="B126" t="s">
         <v>257</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="s">
+        <v>452</v>
+      </c>
+      <c r="D126">
         <v>47.9</v>
       </c>
-      <c r="D126">
+      <c r="E126">
         <v>46.9</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>45.8</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>44.3</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>45.3</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J126" s="2">
+        <v>35.72887874053599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>258</v>
       </c>
       <c r="B127" t="s">
         <v>259</v>
       </c>
-      <c r="C127">
+      <c r="C127" t="s">
+        <v>453</v>
+      </c>
+      <c r="D127">
         <v>54.9</v>
       </c>
-      <c r="D127">
+      <c r="E127">
         <v>53.8</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>53.7</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>53.8</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>53.2</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J127" s="2">
+        <v>44.355801917128595</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>260</v>
       </c>
       <c r="B128" t="s">
         <v>261</v>
       </c>
-      <c r="C128">
+      <c r="C128" t="s">
+        <v>454</v>
+      </c>
+      <c r="D128">
         <v>57.2</v>
       </c>
-      <c r="D128">
+      <c r="E128">
         <v>55.9</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>55</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>55.8</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>55.1</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J128" s="2">
+        <v>41.180582524271848</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>262</v>
       </c>
       <c r="B129" t="s">
         <v>263</v>
       </c>
-      <c r="C129">
+      <c r="C129" t="s">
+        <v>455</v>
+      </c>
+      <c r="D129">
         <v>38.9</v>
       </c>
-      <c r="D129">
+      <c r="E129">
         <v>34.299999999999997</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>30.7</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>30.4</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>31</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J129" s="2">
+        <v>41.538217066581915</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>264</v>
       </c>
       <c r="B130" t="s">
         <v>265</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="s">
+        <v>456</v>
+      </c>
+      <c r="D130">
         <v>56.7</v>
       </c>
-      <c r="D130">
+      <c r="E130">
         <v>54.4</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>54.7</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>53.4</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>54.4</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>54.3</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J130" s="2">
+        <v>44.431878658861095</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>266</v>
       </c>
       <c r="B131" t="s">
         <v>267</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="s">
+        <v>457</v>
+      </c>
+      <c r="D131">
         <v>51.4</v>
       </c>
-      <c r="D131">
+      <c r="E131">
         <v>51.8</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>53.3</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>52.1</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>50.7</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>50.6</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J131" s="2">
+        <v>43.838000316405633</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>268</v>
       </c>
       <c r="B132" t="s">
         <v>269</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="s">
+        <v>458</v>
+      </c>
+      <c r="D132">
         <v>46.2</v>
       </c>
-      <c r="D132">
+      <c r="E132">
         <v>43.2</v>
-      </c>
-      <c r="E132">
-        <v>43.6</v>
       </c>
       <c r="F132">
         <v>43.6</v>
       </c>
       <c r="G132">
+        <v>43.6</v>
+      </c>
+      <c r="H132">
         <v>43.7</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J132" s="2">
+        <v>35.630043451272506</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>270</v>
       </c>
       <c r="B133" t="s">
         <v>271</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="s">
+        <v>459</v>
+      </c>
+      <c r="D133">
         <v>41.3</v>
       </c>
-      <c r="D133">
+      <c r="E133">
         <v>38.700000000000003</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>39.200000000000003</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>38.799999999999997</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>39.299999999999997</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J133" s="2">
+        <v>36.703175478685687</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>272</v>
       </c>
       <c r="B134" t="s">
         <v>273</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="s">
+        <v>460</v>
+      </c>
+      <c r="D134">
         <v>54</v>
       </c>
-      <c r="D134">
+      <c r="E134">
         <v>52.9</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>51</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>51.1</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>50.5</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J134" s="2">
+        <v>34.672252341054701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>274</v>
       </c>
       <c r="B135" t="s">
         <v>275</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="s">
+        <v>461</v>
+      </c>
+      <c r="D135">
         <v>32.6</v>
       </c>
-      <c r="D135">
+      <c r="E135">
         <v>33.9</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>33.700000000000003</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>36.6</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>37.1</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>37.9</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J135" s="2">
+        <v>22.700342999688182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>276</v>
       </c>
       <c r="B136" t="s">
         <v>277</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="s">
+        <v>462</v>
+      </c>
+      <c r="D136">
         <v>53.6</v>
       </c>
-      <c r="D136">
+      <c r="E136">
         <v>51.6</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>51.8</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>52.9</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>51.8</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J136" s="2">
+        <v>39.933615657548359</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>278</v>
       </c>
       <c r="B137" t="s">
         <v>279</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="s">
+        <v>463</v>
+      </c>
+      <c r="D137">
         <v>53.8</v>
       </c>
-      <c r="D137">
+      <c r="E137">
         <v>55.4</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>55.7</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>58.7</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>57.9</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>60.2</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J137" s="2">
+        <v>37.152139816267081</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>280</v>
       </c>
       <c r="B138" t="s">
         <v>281</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138">
         <v>53.7</v>
       </c>
-      <c r="D138">
+      <c r="E138">
         <v>53.8</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>55.4</v>
       </c>
-      <c r="F138">
+      <c r="G138">
         <v>56.1</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>59.5</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>60.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J138" s="2">
+        <v>50.526627364889862</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>282</v>
       </c>
       <c r="B139" t="s">
         <v>283</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="s">
+        <v>465</v>
+      </c>
+      <c r="D139">
         <v>56.8</v>
       </c>
-      <c r="D139">
+      <c r="E139">
         <v>57.7</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>56.7</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>57.2</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>57.3</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>56</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J139" s="2">
+        <v>43.311582381729202</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>284</v>
       </c>
       <c r="B140" t="s">
         <v>285</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="s">
+        <v>466</v>
+      </c>
+      <c r="D140">
         <v>44.1</v>
       </c>
-      <c r="D140">
+      <c r="E140">
         <v>43.9</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>44.6</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>43.1</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>44.6</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>44.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J140" s="2">
+        <v>30.145476456916587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>286</v>
       </c>
       <c r="B141" t="s">
         <v>287</v>
       </c>
-      <c r="C141">
+      <c r="C141" t="s">
+        <v>467</v>
+      </c>
+      <c r="D141">
         <v>49.2</v>
       </c>
-      <c r="D141">
+      <c r="E141">
         <v>51.6</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>55</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>51.8</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>49.8</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J141" s="2">
+        <v>37.601177336276677</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>288</v>
       </c>
       <c r="B142" t="s">
         <v>289</v>
       </c>
-      <c r="C142">
+      <c r="C142" t="s">
+        <v>468</v>
+      </c>
+      <c r="D142">
         <v>60.8</v>
       </c>
-      <c r="D142">
+      <c r="E142">
         <v>61</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>61.6</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>60.4</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>59.7</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J142" s="2">
+        <v>55.022240020595262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>290</v>
       </c>
       <c r="B143" t="s">
         <v>291</v>
       </c>
-      <c r="C143">
+      <c r="C143" t="s">
+        <v>469</v>
+      </c>
+      <c r="D143">
         <v>49.3</v>
       </c>
-      <c r="D143">
+      <c r="E143">
         <v>51.2</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>52</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>54.3</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>53.4</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J143" s="2">
+        <v>40.526249527886186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>292</v>
       </c>
       <c r="B144" t="s">
         <v>293</v>
       </c>
-      <c r="C144">
+      <c r="C144" t="s">
+        <v>470</v>
+      </c>
+      <c r="D144">
         <v>40.200000000000003</v>
       </c>
-      <c r="D144">
+      <c r="E144">
         <v>39.5</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>39.4</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>40.299999999999997</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>41.6</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>45.3</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J144" s="2">
+        <v>34.840199295175601</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>294</v>
       </c>
       <c r="B145" t="s">
         <v>295</v>
       </c>
-      <c r="C145">
+      <c r="C145" t="s">
+        <v>471</v>
+      </c>
+      <c r="D145">
         <v>46.1</v>
       </c>
-      <c r="D145">
+      <c r="E145">
         <v>45.3</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>44.1</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>44.5</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>43.6</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>45.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J145" s="2">
+        <v>43.623325317760219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>296</v>
       </c>
       <c r="B146" t="s">
         <v>297</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="s">
+        <v>472</v>
+      </c>
+      <c r="D146">
         <v>53.2</v>
       </c>
-      <c r="D146">
+      <c r="E146">
         <v>52.7</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>53.5</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>53.2</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>52.2</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>52.1</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J146" s="2">
+        <v>43.059155359048631</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>298</v>
       </c>
       <c r="B147" t="s">
         <v>299</v>
       </c>
-      <c r="C147">
+      <c r="C147" t="s">
+        <v>473</v>
+      </c>
+      <c r="D147">
         <v>57.4</v>
       </c>
-      <c r="D147">
+      <c r="E147">
         <v>56.5</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>55.6</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>56.4</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>56.8</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>57.2</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J147" s="2">
+        <v>45.18170888917858</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>300</v>
       </c>
       <c r="B148" t="s">
         <v>301</v>
       </c>
-      <c r="C148">
+      <c r="C148" t="s">
+        <v>474</v>
+      </c>
+      <c r="D148">
         <v>62.5</v>
       </c>
-      <c r="D148">
+      <c r="E148">
         <v>61.6</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>61.9</v>
-      </c>
-      <c r="F148">
-        <v>61.6</v>
       </c>
       <c r="G148">
         <v>61.6</v>
       </c>
       <c r="H148">
+        <v>61.6</v>
+      </c>
+      <c r="I148">
         <v>62</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J148" s="2">
+        <v>50.1312307254872</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>302</v>
       </c>
       <c r="B149" t="s">
         <v>303</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="s">
+        <v>475</v>
+      </c>
+      <c r="D149">
         <v>50.2</v>
       </c>
-      <c r="D149">
+      <c r="E149">
         <v>49.6</v>
       </c>
-      <c r="E149">
+      <c r="F149">
         <v>49.4</v>
       </c>
-      <c r="F149">
+      <c r="G149">
         <v>49.1</v>
       </c>
-      <c r="G149">
+      <c r="H149">
         <v>48.9</v>
       </c>
-      <c r="H149">
+      <c r="I149">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J149" s="2">
+        <v>42.955075436181275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>304</v>
       </c>
       <c r="B150" t="s">
         <v>305</v>
       </c>
-      <c r="C150">
+      <c r="C150" t="s">
+        <v>476</v>
+      </c>
+      <c r="D150">
         <v>52.9</v>
       </c>
-      <c r="D150">
+      <c r="E150">
         <v>52.7</v>
       </c>
-      <c r="E150">
+      <c r="F150">
         <v>53.5</v>
       </c>
-      <c r="F150">
+      <c r="G150">
         <v>52.1</v>
       </c>
-      <c r="G150">
+      <c r="H150">
         <v>54.3</v>
       </c>
-      <c r="H150">
+      <c r="I150">
         <v>51.9</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J150" s="2">
+        <v>53.426467811969033</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>306</v>
       </c>
       <c r="B151" t="s">
         <v>307</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="s">
+        <v>477</v>
+      </c>
+      <c r="D151">
         <v>50.1</v>
       </c>
-      <c r="D151">
+      <c r="E151">
         <v>50.7</v>
       </c>
-      <c r="E151">
+      <c r="F151">
         <v>51.7</v>
       </c>
-      <c r="F151">
+      <c r="G151">
         <v>51.4</v>
       </c>
-      <c r="G151">
+      <c r="H151">
         <v>49.4</v>
       </c>
-      <c r="H151">
+      <c r="I151">
         <v>47.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J151" s="2">
+        <v>32.139361910354275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>308</v>
       </c>
       <c r="B152" t="s">
         <v>309</v>
       </c>
-      <c r="C152">
+      <c r="C152" t="s">
+        <v>478</v>
+      </c>
+      <c r="D152">
         <v>52.4</v>
       </c>
-      <c r="D152">
+      <c r="E152">
         <v>50.9</v>
       </c>
-      <c r="E152">
+      <c r="F152">
         <v>49.3</v>
       </c>
-      <c r="F152">
+      <c r="G152">
         <v>49.5</v>
       </c>
-      <c r="G152">
+      <c r="H152">
         <v>49.7</v>
       </c>
-      <c r="H152">
+      <c r="I152">
         <v>50.1</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J152" s="2">
+        <v>36.857123673962668</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>310</v>
       </c>
       <c r="B153" t="s">
         <v>311</v>
       </c>
-      <c r="C153">
+      <c r="C153" t="s">
+        <v>479</v>
+      </c>
+      <c r="D153">
         <v>56.6</v>
       </c>
-      <c r="D153">
+      <c r="E153">
         <v>55.8</v>
       </c>
-      <c r="E153">
+      <c r="F153">
         <v>55.2</v>
       </c>
-      <c r="F153">
+      <c r="G153">
         <v>55.4</v>
       </c>
-      <c r="G153">
+      <c r="H153">
         <v>53</v>
       </c>
-      <c r="H153">
+      <c r="I153">
         <v>54.8</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J153" s="2">
+        <v>39.961685823754792</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>312</v>
       </c>
       <c r="B154" t="s">
         <v>313</v>
       </c>
-      <c r="C154">
+      <c r="C154" t="s">
+        <v>480</v>
+      </c>
+      <c r="D154">
         <v>20.6</v>
       </c>
-      <c r="D154">
+      <c r="E154">
         <v>21.7</v>
       </c>
-      <c r="E154">
+      <c r="F154">
         <v>25</v>
       </c>
-      <c r="F154">
+      <c r="G154">
         <v>30</v>
       </c>
-      <c r="G154">
+      <c r="H154">
         <v>32.200000000000003</v>
       </c>
-      <c r="H154">
+      <c r="I154">
         <v>42</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J154" s="2">
+        <v>19.77800201816347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>314</v>
       </c>
       <c r="B155" t="s">
         <v>315</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="s">
+        <v>481</v>
+      </c>
+      <c r="D155">
         <v>55</v>
       </c>
-      <c r="D155">
+      <c r="E155">
         <v>52.6</v>
       </c>
-      <c r="E155">
+      <c r="F155">
         <v>51.3</v>
       </c>
-      <c r="F155">
+      <c r="G155">
         <v>53</v>
       </c>
-      <c r="G155">
+      <c r="H155">
         <v>53.7</v>
       </c>
-      <c r="H155">
+      <c r="I155">
         <v>54</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J155" s="2">
+        <v>56.041235715012384</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>316</v>
       </c>
       <c r="B156" t="s">
         <v>317</v>
       </c>
-      <c r="C156">
+      <c r="C156" t="s">
+        <v>482</v>
+      </c>
+      <c r="D156">
         <v>64.8</v>
       </c>
-      <c r="D156">
+      <c r="E156">
         <v>64.7</v>
       </c>
-      <c r="E156">
+      <c r="F156">
         <v>64</v>
       </c>
-      <c r="F156">
+      <c r="G156">
         <v>63.6</v>
       </c>
-      <c r="G156">
+      <c r="H156">
         <v>63.1</v>
       </c>
-      <c r="H156">
+      <c r="I156">
         <v>62.6</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J156" s="2">
+        <v>40.234273818317874</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>318</v>
       </c>
       <c r="B157" t="s">
         <v>319</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="s">
+        <v>483</v>
+      </c>
+      <c r="D157">
         <v>35.700000000000003</v>
       </c>
-      <c r="D157">
+      <c r="E157">
         <v>35.200000000000003</v>
       </c>
-      <c r="E157">
+      <c r="F157">
         <v>36.9</v>
       </c>
-      <c r="F157">
+      <c r="G157">
         <v>35.200000000000003</v>
       </c>
-      <c r="G157">
+      <c r="H157">
         <v>35.5</v>
       </c>
-      <c r="H157">
+      <c r="I157">
         <v>38.6</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J157" s="2">
+        <v>30.303717135086128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>320</v>
       </c>
       <c r="B158" t="s">
         <v>321</v>
       </c>
-      <c r="C158">
+      <c r="C158" t="s">
+        <v>484</v>
+      </c>
+      <c r="D158">
         <v>52.3</v>
       </c>
-      <c r="D158">
+      <c r="E158">
         <v>51.4</v>
       </c>
-      <c r="E158">
+      <c r="F158">
         <v>50</v>
       </c>
-      <c r="F158">
+      <c r="G158">
         <v>51.5</v>
       </c>
-      <c r="G158">
+      <c r="H158">
         <v>52.8</v>
       </c>
-      <c r="H158">
+      <c r="I158">
         <v>53</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J158" s="2">
+        <v>39.181227143437624</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>322</v>
       </c>
       <c r="B159" t="s">
         <v>323</v>
       </c>
-      <c r="C159">
+      <c r="C159" t="s">
+        <v>485</v>
+      </c>
+      <c r="D159">
         <v>45.5</v>
       </c>
-      <c r="D159">
+      <c r="E159">
         <v>47.6</v>
       </c>
-      <c r="E159">
+      <c r="F159">
         <v>49.1</v>
       </c>
-      <c r="F159">
+      <c r="G159">
         <v>48.7</v>
       </c>
-      <c r="G159">
+      <c r="H159">
         <v>48.8</v>
       </c>
-      <c r="H159">
+      <c r="I159">
         <v>49.8</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J159" s="2">
+        <v>45.405105438401776</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>324</v>
       </c>
       <c r="B160" t="s">
         <v>325</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="s">
+        <v>486</v>
+      </c>
+      <c r="D160">
         <v>56.5</v>
       </c>
-      <c r="D160">
+      <c r="E160">
         <v>55.3</v>
       </c>
-      <c r="E160">
+      <c r="F160">
         <v>56.7</v>
       </c>
-      <c r="F160">
+      <c r="G160">
         <v>54.7</v>
       </c>
-      <c r="G160">
+      <c r="H160">
         <v>57.3</v>
       </c>
-      <c r="H160">
+      <c r="I160">
         <v>57.9</v>
+      </c>
+      <c r="J160" s="2">
+        <v>42.305064897043039</v>
       </c>
     </row>
   </sheetData>
